--- a/_other/Modèle-audit-SEO.xlsx
+++ b/_other/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edain\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evignolle/websites/openclassrooms/Projet-4-optimized/_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCFD6ED-D28E-4197-982F-D6969B660156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35098DA4-A69B-7949-B918-E2BB31EFB865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Catégorie</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Changer le type en "text"</t>
   </si>
   <si>
-    <t>Accebilité</t>
-  </si>
-  <si>
     <t>Texte écrit en tout petit presque de la même couleur que le fond</t>
   </si>
   <si>
@@ -216,16 +213,37 @@
     <t>ok</t>
   </si>
   <si>
-    <t>à faire</t>
-  </si>
-  <si>
-    <t>à finir</t>
-  </si>
-  <si>
     <t>Texte inutile</t>
   </si>
   <si>
     <t>Attribut dans un formulaire</t>
+  </si>
+  <si>
+    <t>Image pour du texte</t>
+  </si>
+  <si>
+    <t>Consommation de donnée inutile</t>
+  </si>
+  <si>
+    <t>Utiliser les balises &lt;p&gt; pour écrire du texte</t>
+  </si>
+  <si>
+    <t>Supprimer les images et les remplacer par du texte</t>
+  </si>
+  <si>
+    <t>Acceccibilité</t>
+  </si>
+  <si>
+    <t>Version mobile menu ne s'ouvre pas</t>
+  </si>
+  <si>
+    <t>Le menu s'ouvre pas</t>
+  </si>
+  <si>
+    <t>Faire en sorte que le client est accès au menu</t>
+  </si>
+  <si>
+    <t>Remplacer la sources des fichiers JS</t>
   </si>
 </sst>
 </file>
@@ -537,21 +555,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1"/>
-    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
-    <col min="8" max="27" width="10.5546875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.33203125" style="1"/>
+    <col min="6" max="6" width="34.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
+    <col min="8" max="27" width="10.5703125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -623,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -646,7 +664,7 @@
         <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -669,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -680,7 +698,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -692,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -715,7 +733,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -738,7 +756,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -761,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -784,7 +802,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -807,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -830,7 +848,7 @@
         <v>39</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -853,7 +871,7 @@
         <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -876,7 +894,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -884,44 +902,81 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
